--- a/va_facility_data_2025-02-20/Fort Harrison VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fort%20Harrison%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fort Harrison VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Fort%20Harrison%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R15707e21d00e4a71821bad8800ea2c4a"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0ce980722407493597deee191f6e4ad3"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R0da23bb355dd497c92a341053636caa9"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R16a6058afa6a42b6a533f9c0e604afb7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra8ae0dd2b9f146faa02445e8c18e3ebd"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R99eab2486f5546608a6ec30085b002f3"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R30b463b7a3de4c78913e14b6e65a7bbb"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rbc78ffa7c95741eda3c54fe0c1447199"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R03cb889532644b71a96995f6e3694440"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R75b918b398884c2e8bce38719ae5b2d7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R7f2834370aa94906a1bfded86c6c5689"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Ra0e96392c4ee4aaf9efed569d865b0e8"/>
   </x:sheets>
 </x:workbook>
 </file>
